--- a/DMP/Report/Template/DQA FY2018 Q1/DATIM PIVOT TABLE Q1 FY18.xlsx
+++ b/DMP/Report/Template/DQA FY2018 Q1/DATIM PIVOT TABLE Q1 FY18.xlsx
@@ -54,10 +54,10 @@
     <t xml:space="preserve">HTS_TST (N, DSD): HTS received results </t>
   </si>
   <si>
-    <t>HTC _Only ( All testing modalities: Impatient services, Paediatric Services, Malnutrition clinics, TB Clinic, STI Clinic, Emergency ward, Other PITC, Community modality: Other services, Mobile service, VCT, Index testing, HTS_Self testing)  excluding, PMTCT_STAT , VMMC_CRC, PP_PRE, KP_PREV, OVC_HIVSTAT</t>
-  </si>
-  <si>
     <t>PMTCT_HEI_POS (N, DSD, Age/HIVStatus): Infant Testing</t>
+  </si>
+  <si>
+    <t>HTC ( All testing modalities: Impatient services, Paediatric Services, Malnutrition clinics, TB Clinic, STI Clinic, Emergency ward, Other PITC, Community modality: Other services, Mobile service, VCT, Index testing)  excluding, PMTCT_STAT , VMMC_CRC, PP_PRE, KP_PREV, OVC_HIVSTAT</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>9</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
